--- a/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Serie</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE222"/>
+  <dimension ref="A1:AE223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21765,7 +21768,7 @@
         <v>1073</v>
       </c>
       <c r="F218">
-        <v>-610</v>
+        <v>110</v>
       </c>
       <c r="G218">
         <v>-126</v>
@@ -21783,10 +21786,10 @@
         <v>-15</v>
       </c>
       <c r="L218">
-        <v>-4288</v>
+        <v>-4286</v>
       </c>
       <c r="M218">
-        <v>-144</v>
+        <v>-142</v>
       </c>
       <c r="N218">
         <v>81</v>
@@ -21798,49 +21801,49 @@
         <v>-4097</v>
       </c>
       <c r="Q218">
-        <v>2094</v>
+        <v>2015</v>
       </c>
       <c r="R218">
         <v>0</v>
       </c>
       <c r="S218">
-        <v>2381</v>
+        <v>2294</v>
       </c>
       <c r="T218">
         <v>-126</v>
       </c>
       <c r="U218">
-        <v>-162</v>
+        <v>-152</v>
       </c>
       <c r="V218">
-        <v>1710</v>
+        <v>2506</v>
       </c>
       <c r="W218">
-        <v>1425</v>
+        <v>1673</v>
       </c>
       <c r="X218">
-        <v>292</v>
+        <v>906</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-5</v>
+        <v>-72</v>
       </c>
       <c r="AA218">
-        <v>-231</v>
+        <v>-669</v>
       </c>
       <c r="AB218">
-        <v>-1225</v>
+        <v>-1210</v>
       </c>
       <c r="AC218">
-        <v>544</v>
+        <v>96</v>
       </c>
       <c r="AD218">
         <v>-3</v>
       </c>
       <c r="AE218">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="219" spans="1:31">
@@ -21860,7 +21863,7 @@
         <v>-230</v>
       </c>
       <c r="F219">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="G219">
         <v>319</v>
@@ -21878,10 +21881,10 @@
         <v>-8</v>
       </c>
       <c r="L219">
-        <v>-245</v>
+        <v>-241</v>
       </c>
       <c r="M219">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N219">
         <v>-409</v>
@@ -21893,49 +21896,49 @@
         <v>333</v>
       </c>
       <c r="Q219">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="R219">
         <v>0</v>
       </c>
       <c r="S219">
-        <v>-43</v>
+        <v>-133</v>
       </c>
       <c r="T219">
         <v>-106</v>
       </c>
       <c r="U219">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="V219">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="W219">
-        <v>-48</v>
+        <v>-177</v>
       </c>
       <c r="X219">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="Y219">
         <v>0</v>
       </c>
       <c r="Z219">
-        <v>-2</v>
+        <v>-68</v>
       </c>
       <c r="AA219">
-        <v>566</v>
+        <v>1111</v>
       </c>
       <c r="AB219">
-        <v>-52</v>
+        <v>144</v>
       </c>
       <c r="AC219">
-        <v>529</v>
+        <v>837</v>
       </c>
       <c r="AD219">
         <v>15</v>
       </c>
       <c r="AE219">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="220" spans="1:31">
@@ -21943,7 +21946,7 @@
         <v>249</v>
       </c>
       <c r="B220">
-        <v>-735</v>
+        <v>-734</v>
       </c>
       <c r="C220">
         <v>172</v>
@@ -21952,10 +21955,10 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>-907</v>
+        <v>-906</v>
       </c>
       <c r="F220">
-        <v>497</v>
+        <v>1681</v>
       </c>
       <c r="G220">
         <v>1004</v>
@@ -21976,7 +21979,7 @@
         <v>1043</v>
       </c>
       <c r="M220">
-        <v>-317</v>
+        <v>-318</v>
       </c>
       <c r="N220">
         <v>142</v>
@@ -21988,49 +21991,49 @@
         <v>1357</v>
       </c>
       <c r="Q220">
-        <v>-1099</v>
+        <v>-1161</v>
       </c>
       <c r="R220">
         <v>0</v>
       </c>
       <c r="S220">
-        <v>-846</v>
+        <v>-918</v>
       </c>
       <c r="T220">
         <v>-48</v>
       </c>
       <c r="U220">
-        <v>-205</v>
+        <v>-196</v>
       </c>
       <c r="V220">
-        <v>-451</v>
+        <v>796</v>
       </c>
       <c r="W220">
-        <v>-106</v>
+        <v>400</v>
       </c>
       <c r="X220">
-        <v>-332</v>
+        <v>481</v>
       </c>
       <c r="Y220">
         <v>4</v>
       </c>
       <c r="Z220">
-        <v>-17</v>
+        <v>-89</v>
       </c>
       <c r="AA220">
-        <v>-1059</v>
+        <v>-1538</v>
       </c>
       <c r="AB220">
-        <v>-904</v>
+        <v>-921</v>
       </c>
       <c r="AC220">
-        <v>70</v>
+        <v>-219</v>
       </c>
       <c r="AD220">
         <v>68</v>
       </c>
       <c r="AE220">
-        <v>-293</v>
+        <v>-466</v>
       </c>
     </row>
     <row r="221" spans="1:31">
@@ -22050,7 +22053,7 @@
         <v>904</v>
       </c>
       <c r="F221">
-        <v>2925</v>
+        <v>2998</v>
       </c>
       <c r="G221">
         <v>2348</v>
@@ -22083,13 +22086,13 @@
         <v>-29</v>
       </c>
       <c r="Q221">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="R221">
         <v>0</v>
       </c>
       <c r="S221">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="T221">
         <v>-122</v>
@@ -22098,34 +22101,34 @@
         <v>-188</v>
       </c>
       <c r="V221">
-        <v>344</v>
+        <v>458</v>
       </c>
       <c r="W221">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X221">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-21</v>
+        <v>-25</v>
       </c>
       <c r="AA221">
-        <v>-2243</v>
+        <v>-1201</v>
       </c>
       <c r="AB221">
-        <v>-3335</v>
+        <v>-3397</v>
       </c>
       <c r="AC221">
-        <v>-831</v>
+        <v>-667</v>
       </c>
       <c r="AD221">
         <v>19</v>
       </c>
       <c r="AE221">
-        <v>1904</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="222" spans="1:31">
@@ -22145,7 +22148,7 @@
         <v>-36</v>
       </c>
       <c r="F222">
-        <v>-1535</v>
+        <v>-1278</v>
       </c>
       <c r="G222">
         <v>5031</v>
@@ -22163,10 +22166,10 @@
         <v>95</v>
       </c>
       <c r="L222">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="M222">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="N222">
         <v>488</v>
@@ -22175,16 +22178,16 @@
         <v>57</v>
       </c>
       <c r="P222">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="Q222">
-        <v>-7131</v>
+        <v>-7159</v>
       </c>
       <c r="R222">
         <v>0</v>
       </c>
       <c r="S222">
-        <v>-7357</v>
+        <v>-7385</v>
       </c>
       <c r="T222">
         <v>-41</v>
@@ -22193,34 +22196,129 @@
         <v>267</v>
       </c>
       <c r="V222">
-        <v>-419</v>
+        <v>-153</v>
       </c>
       <c r="W222">
-        <v>-317</v>
+        <v>-285</v>
       </c>
       <c r="X222">
-        <v>-131</v>
+        <v>75</v>
       </c>
       <c r="Y222">
         <v>-13</v>
       </c>
       <c r="Z222">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="AA222">
-        <v>427</v>
+        <v>1384</v>
       </c>
       <c r="AB222">
-        <v>781</v>
+        <v>825</v>
       </c>
       <c r="AC222">
-        <v>539</v>
+        <v>751</v>
       </c>
       <c r="AD222">
         <v>37</v>
       </c>
       <c r="AE222">
-        <v>-930</v>
+        <v>-229</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31">
+      <c r="A223" t="s">
+        <v>252</v>
+      </c>
+      <c r="B223">
+        <v>-4090</v>
+      </c>
+      <c r="C223">
+        <v>-3365</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>-725</v>
+      </c>
+      <c r="F223">
+        <v>893</v>
+      </c>
+      <c r="G223">
+        <v>-2608</v>
+      </c>
+      <c r="H223">
+        <v>-2596</v>
+      </c>
+      <c r="I223">
+        <v>-3</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>-9</v>
+      </c>
+      <c r="L223">
+        <v>1782</v>
+      </c>
+      <c r="M223">
+        <v>-188</v>
+      </c>
+      <c r="N223">
+        <v>208</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>1762</v>
+      </c>
+      <c r="Q223">
+        <v>490</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>419</v>
+      </c>
+      <c r="T223">
+        <v>42</v>
+      </c>
+      <c r="U223">
+        <v>29</v>
+      </c>
+      <c r="V223">
+        <v>1229</v>
+      </c>
+      <c r="W223">
+        <v>62</v>
+      </c>
+      <c r="X223">
+        <v>1200</v>
+      </c>
+      <c r="Y223">
+        <v>-9</v>
+      </c>
+      <c r="Z223">
+        <v>-25</v>
+      </c>
+      <c r="AA223">
+        <v>904</v>
+      </c>
+      <c r="AB223">
+        <v>-676</v>
+      </c>
+      <c r="AC223">
+        <v>898</v>
+      </c>
+      <c r="AD223">
+        <v>59</v>
+      </c>
+      <c r="AE223">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>Serie</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE223"/>
+  <dimension ref="A1:AE224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22321,6 +22324,101 @@
         <v>623</v>
       </c>
     </row>
+    <row r="224" spans="1:31">
+      <c r="A224" t="s">
+        <v>253</v>
+      </c>
+      <c r="B224">
+        <v>-5394</v>
+      </c>
+      <c r="C224">
+        <v>-5687</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>293</v>
+      </c>
+      <c r="F224">
+        <v>3926</v>
+      </c>
+      <c r="G224">
+        <v>3590</v>
+      </c>
+      <c r="H224">
+        <v>3599</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>-9</v>
+      </c>
+      <c r="L224">
+        <v>-1778</v>
+      </c>
+      <c r="M224">
+        <v>27</v>
+      </c>
+      <c r="N224">
+        <v>-764</v>
+      </c>
+      <c r="O224">
+        <v>74</v>
+      </c>
+      <c r="P224">
+        <v>-1115</v>
+      </c>
+      <c r="Q224">
+        <v>-32</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>128</v>
+      </c>
+      <c r="T224">
+        <v>-16</v>
+      </c>
+      <c r="U224">
+        <v>-144</v>
+      </c>
+      <c r="V224">
+        <v>2145</v>
+      </c>
+      <c r="W224">
+        <v>693</v>
+      </c>
+      <c r="X224">
+        <v>1495</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>-42</v>
+      </c>
+      <c r="AA224">
+        <v>-1604</v>
+      </c>
+      <c r="AB224">
+        <v>-1218</v>
+      </c>
+      <c r="AC224">
+        <v>-1249</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>864</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Serie</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE224"/>
+  <dimension ref="A1:AE225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22419,6 +22422,101 @@
         <v>864</v>
       </c>
     </row>
+    <row r="225" spans="1:31">
+      <c r="A225" t="s">
+        <v>254</v>
+      </c>
+      <c r="B225">
+        <v>-4397</v>
+      </c>
+      <c r="C225">
+        <v>-4197</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>-200</v>
+      </c>
+      <c r="F225">
+        <v>2011</v>
+      </c>
+      <c r="G225">
+        <v>982</v>
+      </c>
+      <c r="H225">
+        <v>3368</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>-2386</v>
+      </c>
+      <c r="L225">
+        <v>885</v>
+      </c>
+      <c r="M225">
+        <v>-85</v>
+      </c>
+      <c r="N225">
+        <v>-392</v>
+      </c>
+      <c r="O225">
+        <v>199</v>
+      </c>
+      <c r="P225">
+        <v>1163</v>
+      </c>
+      <c r="Q225">
+        <v>-300</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>-320</v>
+      </c>
+      <c r="T225">
+        <v>-42</v>
+      </c>
+      <c r="U225">
+        <v>62</v>
+      </c>
+      <c r="V225">
+        <v>444</v>
+      </c>
+      <c r="W225">
+        <v>-109</v>
+      </c>
+      <c r="X225">
+        <v>582</v>
+      </c>
+      <c r="Y225">
+        <v>4</v>
+      </c>
+      <c r="Z225">
+        <v>-32</v>
+      </c>
+      <c r="AA225">
+        <v>-142</v>
+      </c>
+      <c r="AB225">
+        <v>-396</v>
+      </c>
+      <c r="AC225">
+        <v>827</v>
+      </c>
+      <c r="AD225">
+        <v>31</v>
+      </c>
+      <c r="AE225">
+        <v>-604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Flujos netos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Serie</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE225"/>
+  <dimension ref="A1:AE226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22517,6 +22520,101 @@
         <v>-604</v>
       </c>
     </row>
+    <row r="226" spans="1:31">
+      <c r="A226" t="s">
+        <v>255</v>
+      </c>
+      <c r="B226">
+        <v>-2026</v>
+      </c>
+      <c r="C226">
+        <v>-1618</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>-408</v>
+      </c>
+      <c r="F226">
+        <v>1646</v>
+      </c>
+      <c r="G226">
+        <v>1700</v>
+      </c>
+      <c r="H226">
+        <v>1709</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>-9</v>
+      </c>
+      <c r="L226">
+        <v>138</v>
+      </c>
+      <c r="M226">
+        <v>-166</v>
+      </c>
+      <c r="N226">
+        <v>-308</v>
+      </c>
+      <c r="O226">
+        <v>-26</v>
+      </c>
+      <c r="P226">
+        <v>637</v>
+      </c>
+      <c r="Q226">
+        <v>-486</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>-525</v>
+      </c>
+      <c r="T226">
+        <v>27</v>
+      </c>
+      <c r="U226">
+        <v>11</v>
+      </c>
+      <c r="V226">
+        <v>294</v>
+      </c>
+      <c r="W226">
+        <v>40</v>
+      </c>
+      <c r="X226">
+        <v>240</v>
+      </c>
+      <c r="Y226">
+        <v>2</v>
+      </c>
+      <c r="Z226">
+        <v>12</v>
+      </c>
+      <c r="AA226">
+        <v>-1446</v>
+      </c>
+      <c r="AB226">
+        <v>1558</v>
+      </c>
+      <c r="AC226">
+        <v>-3039</v>
+      </c>
+      <c r="AD226">
+        <v>10</v>
+      </c>
+      <c r="AE226">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
